--- a/documentação/planilha/planilha de ICs - Next Page.xlsx
+++ b/documentação/planilha/planilha de ICs - Next Page.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Requisitos Não-Funcionais</t>
   </si>
   <si>
-    <t xml:space="preserve">Lista de requisitos-não funcionais</t>
+    <t xml:space="preserve">Lista de requisitos não funcionais</t>
   </si>
   <si>
     <t xml:space="preserve">IC-002,IC-003</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">IC-008</t>
   </si>
   <si>
-    <t xml:space="preserve">Estruturamento do banco de dados</t>
+    <t xml:space="preserve">Estruturação do banco de dados</t>
   </si>
   <si>
     <t xml:space="preserve">Artefato técnico</t>
@@ -200,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,39 +225,59 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -301,7 +321,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,7 +330,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,11 +338,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,205 +371,93 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285f4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ea4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="fbbc04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34a853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="ff6d01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46bdc6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155cc"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155cc"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="54.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="54.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -559,283 +483,339 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
